--- a/nnTestParms_b_1.xlsx
+++ b/nnTestParms_b_1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="19">
   <si>
     <t>ID</t>
   </si>
@@ -430,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O64"/>
+  <dimension ref="A1:O67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="H67" sqref="H67"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1457,13 +1457,13 @@
         <v>18</v>
       </c>
       <c r="C32">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
         <v>18</v>
       </c>
       <c r="E32">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="F32" t="s">
         <v>17</v>
@@ -1495,13 +1495,13 @@
         <v>18</v>
       </c>
       <c r="C33">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
         <v>18</v>
       </c>
       <c r="E33">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="F33" t="s">
         <v>17</v>
@@ -1510,19 +1510,19 @@
         <v>16</v>
       </c>
       <c r="K33" s="3">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="L33" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
       <c r="M33" s="2">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="N33" s="1">
-        <v>5.0000000000000002E-11</v>
+        <v>5.0000000000000003E-10</v>
       </c>
       <c r="O33" s="1">
-        <v>4.9999999999999999E-13</v>
+        <v>4.9999999999999997E-12</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
@@ -1533,13 +1533,13 @@
         <v>18</v>
       </c>
       <c r="C34">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
         <v>18</v>
       </c>
       <c r="E34">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="F34" t="s">
         <v>17</v>
@@ -1548,19 +1548,19 @@
         <v>16</v>
       </c>
       <c r="K34" s="3">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="L34" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
       <c r="M34" s="2">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="N34" s="1">
-        <v>5.0000000000000002E-11</v>
+        <v>5.0000000000000003E-10</v>
       </c>
       <c r="O34" s="1">
-        <v>4.9999999999999999E-13</v>
+        <v>4.9999999999999997E-12</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
@@ -1571,13 +1571,13 @@
         <v>18</v>
       </c>
       <c r="C35">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="D35" t="s">
         <v>18</v>
       </c>
       <c r="E35">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="F35" t="s">
         <v>17</v>
@@ -1586,19 +1586,19 @@
         <v>16</v>
       </c>
       <c r="K35" s="3">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="L35" s="2">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="M35" s="2">
-        <v>0.14000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="N35" s="1">
+        <v>5.0000000000000003E-10</v>
+      </c>
+      <c r="O35" s="1">
         <v>4.9999999999999997E-12</v>
-      </c>
-      <c r="O35" s="1">
-        <v>5.0000000000000002E-14</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
@@ -1609,13 +1609,13 @@
         <v>18</v>
       </c>
       <c r="C36">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="D36" t="s">
         <v>18</v>
       </c>
       <c r="E36">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="F36" t="s">
         <v>17</v>
@@ -1624,19 +1624,19 @@
         <v>16</v>
       </c>
       <c r="K36" s="3">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="L36" s="2">
-        <v>0.09</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="M36" s="2">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="N36" s="1">
+        <v>5.0000000000000002E-11</v>
+      </c>
+      <c r="O36" s="1">
         <v>4.9999999999999999E-13</v>
-      </c>
-      <c r="O36" s="1">
-        <v>5E-15</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
@@ -1647,13 +1647,13 @@
         <v>18</v>
       </c>
       <c r="C37">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="D37" t="s">
         <v>18</v>
       </c>
       <c r="E37">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="F37" t="s">
         <v>17</v>
@@ -1665,16 +1665,16 @@
         <v>5000</v>
       </c>
       <c r="L37" s="2">
-        <v>0.1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="M37" s="2">
-        <v>0.16</v>
+        <v>0.13</v>
       </c>
       <c r="N37" s="1">
-        <v>5.0000000000000002E-14</v>
+        <v>5.0000000000000002E-11</v>
       </c>
       <c r="O37" s="1">
-        <v>5.0000000000000004E-16</v>
+        <v>4.9999999999999999E-13</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
@@ -1685,13 +1685,13 @@
         <v>18</v>
       </c>
       <c r="C38">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="D38" t="s">
         <v>18</v>
       </c>
       <c r="E38">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="F38" t="s">
         <v>17</v>
@@ -1723,13 +1723,13 @@
         <v>18</v>
       </c>
       <c r="C39">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="D39" t="s">
         <v>18</v>
       </c>
       <c r="E39">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="F39" t="s">
         <v>17</v>
@@ -1761,13 +1761,13 @@
         <v>18</v>
       </c>
       <c r="C40">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="D40" t="s">
         <v>18</v>
       </c>
       <c r="E40">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="F40" t="s">
         <v>17</v>
@@ -1799,13 +1799,13 @@
         <v>18</v>
       </c>
       <c r="C41">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="D41" t="s">
         <v>18</v>
       </c>
       <c r="E41">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="F41" t="s">
         <v>17</v>
@@ -1837,13 +1837,13 @@
         <v>18</v>
       </c>
       <c r="C42">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="D42" t="s">
         <v>18</v>
       </c>
       <c r="E42">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="F42" t="s">
         <v>17</v>
@@ -1875,13 +1875,13 @@
         <v>18</v>
       </c>
       <c r="C43">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="D43" t="s">
         <v>18</v>
       </c>
       <c r="E43">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="F43" t="s">
         <v>17</v>
@@ -1913,13 +1913,13 @@
         <v>18</v>
       </c>
       <c r="C44">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D44" t="s">
         <v>18</v>
       </c>
       <c r="E44">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="F44" t="s">
         <v>17</v>
@@ -1931,16 +1931,16 @@
         <v>1000</v>
       </c>
       <c r="L44" s="2">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="M44" s="2">
-        <v>0.17</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="N44" s="1">
-        <v>5E-15</v>
+        <v>4.9999999999999997E-12</v>
       </c>
       <c r="O44" s="1">
-        <v>4.9999999999999999E-17</v>
+        <v>5.0000000000000002E-14</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
@@ -1951,13 +1951,13 @@
         <v>18</v>
       </c>
       <c r="C45">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D45" t="s">
         <v>18</v>
       </c>
       <c r="E45">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="F45" t="s">
         <v>17</v>
@@ -1969,16 +1969,16 @@
         <v>2500</v>
       </c>
       <c r="L45" s="2">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="M45" s="2">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
       <c r="N45" s="1">
-        <v>5.0000000000000004E-16</v>
+        <v>4.9999999999999999E-13</v>
       </c>
       <c r="O45" s="1">
-        <v>5.0000000000000004E-18</v>
+        <v>5E-15</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
@@ -1989,13 +1989,13 @@
         <v>18</v>
       </c>
       <c r="C46">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D46" t="s">
         <v>18</v>
       </c>
       <c r="E46">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="F46" t="s">
         <v>17</v>
@@ -2007,16 +2007,16 @@
         <v>5000</v>
       </c>
       <c r="L46" s="2">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="M46" s="2">
-        <v>0.19</v>
+        <v>0.16</v>
       </c>
       <c r="N46" s="1">
-        <v>4.9999999999999999E-17</v>
+        <v>5.0000000000000002E-14</v>
       </c>
       <c r="O46" s="1">
-        <v>5.0000000000000004E-19</v>
+        <v>5.0000000000000004E-16</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
@@ -2033,7 +2033,7 @@
         <v>18</v>
       </c>
       <c r="E47">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="F47" t="s">
         <v>17</v>
@@ -2071,7 +2071,7 @@
         <v>18</v>
       </c>
       <c r="E48">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="F48" t="s">
         <v>17</v>
@@ -2109,7 +2109,7 @@
         <v>18</v>
       </c>
       <c r="E49">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="F49" t="s">
         <v>17</v>
@@ -2141,13 +2141,13 @@
         <v>18</v>
       </c>
       <c r="C50">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="D50" t="s">
         <v>18</v>
       </c>
       <c r="E50">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="F50" t="s">
         <v>17</v>
@@ -2179,13 +2179,13 @@
         <v>18</v>
       </c>
       <c r="C51">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="D51" t="s">
         <v>18</v>
       </c>
       <c r="E51">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="F51" t="s">
         <v>17</v>
@@ -2217,13 +2217,13 @@
         <v>18</v>
       </c>
       <c r="C52">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="D52" t="s">
         <v>18</v>
       </c>
       <c r="E52">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="F52" t="s">
         <v>17</v>
@@ -2255,7 +2255,7 @@
         <v>18</v>
       </c>
       <c r="C53">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="D53" t="s">
         <v>18</v>
@@ -2293,7 +2293,7 @@
         <v>18</v>
       </c>
       <c r="C54">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="D54" t="s">
         <v>18</v>
@@ -2331,7 +2331,7 @@
         <v>18</v>
       </c>
       <c r="C55">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="D55" t="s">
         <v>18</v>
@@ -2375,7 +2375,7 @@
         <v>18</v>
       </c>
       <c r="E56">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="F56" t="s">
         <v>17</v>
@@ -2413,7 +2413,7 @@
         <v>18</v>
       </c>
       <c r="E57">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="F57" t="s">
         <v>17</v>
@@ -2451,7 +2451,7 @@
         <v>18</v>
       </c>
       <c r="E58">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="F58" t="s">
         <v>17</v>
@@ -2483,13 +2483,13 @@
         <v>18</v>
       </c>
       <c r="C59">
+        <v>100</v>
+      </c>
+      <c r="D59" t="s">
+        <v>18</v>
+      </c>
+      <c r="E59">
         <v>75</v>
-      </c>
-      <c r="D59" t="s">
-        <v>18</v>
-      </c>
-      <c r="E59">
-        <v>100</v>
       </c>
       <c r="F59" t="s">
         <v>17</v>
@@ -2521,13 +2521,13 @@
         <v>18</v>
       </c>
       <c r="C60">
+        <v>100</v>
+      </c>
+      <c r="D60" t="s">
+        <v>18</v>
+      </c>
+      <c r="E60">
         <v>75</v>
-      </c>
-      <c r="D60" t="s">
-        <v>18</v>
-      </c>
-      <c r="E60">
-        <v>100</v>
       </c>
       <c r="F60" t="s">
         <v>17</v>
@@ -2559,13 +2559,13 @@
         <v>18</v>
       </c>
       <c r="C61">
+        <v>100</v>
+      </c>
+      <c r="D61" t="s">
+        <v>18</v>
+      </c>
+      <c r="E61">
         <v>75</v>
-      </c>
-      <c r="D61" t="s">
-        <v>18</v>
-      </c>
-      <c r="E61">
-        <v>100</v>
       </c>
       <c r="F61" t="s">
         <v>17</v>
@@ -2597,13 +2597,13 @@
         <v>18</v>
       </c>
       <c r="C62">
+        <v>75</v>
+      </c>
+      <c r="D62" t="s">
+        <v>18</v>
+      </c>
+      <c r="E62">
         <v>100</v>
-      </c>
-      <c r="D62" t="s">
-        <v>18</v>
-      </c>
-      <c r="E62">
-        <v>35</v>
       </c>
       <c r="F62" t="s">
         <v>17</v>
@@ -2635,13 +2635,13 @@
         <v>18</v>
       </c>
       <c r="C63">
+        <v>75</v>
+      </c>
+      <c r="D63" t="s">
+        <v>18</v>
+      </c>
+      <c r="E63">
         <v>100</v>
-      </c>
-      <c r="D63" t="s">
-        <v>18</v>
-      </c>
-      <c r="E63">
-        <v>35</v>
       </c>
       <c r="F63" t="s">
         <v>17</v>
@@ -2673,13 +2673,13 @@
         <v>18</v>
       </c>
       <c r="C64">
+        <v>75</v>
+      </c>
+      <c r="D64" t="s">
+        <v>18</v>
+      </c>
+      <c r="E64">
         <v>100</v>
-      </c>
-      <c r="D64" t="s">
-        <v>18</v>
-      </c>
-      <c r="E64">
-        <v>35</v>
       </c>
       <c r="F64" t="s">
         <v>17</v>
@@ -2700,6 +2700,120 @@
         <v>4.9999999999999999E-17</v>
       </c>
       <c r="O64" s="1">
+        <v>5.0000000000000004E-19</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>18</v>
+      </c>
+      <c r="C65">
+        <v>100</v>
+      </c>
+      <c r="D65" t="s">
+        <v>18</v>
+      </c>
+      <c r="E65">
+        <v>35</v>
+      </c>
+      <c r="F65" t="s">
+        <v>17</v>
+      </c>
+      <c r="J65" t="s">
+        <v>16</v>
+      </c>
+      <c r="K65" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L65" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="M65" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="N65" s="1">
+        <v>5E-15</v>
+      </c>
+      <c r="O65" s="1">
+        <v>4.9999999999999999E-17</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>18</v>
+      </c>
+      <c r="C66">
+        <v>100</v>
+      </c>
+      <c r="D66" t="s">
+        <v>18</v>
+      </c>
+      <c r="E66">
+        <v>35</v>
+      </c>
+      <c r="F66" t="s">
+        <v>17</v>
+      </c>
+      <c r="J66" t="s">
+        <v>16</v>
+      </c>
+      <c r="K66" s="3">
+        <v>2500</v>
+      </c>
+      <c r="L66" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="M66" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="N66" s="1">
+        <v>5.0000000000000004E-16</v>
+      </c>
+      <c r="O66" s="1">
+        <v>5.0000000000000004E-18</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>18</v>
+      </c>
+      <c r="C67">
+        <v>100</v>
+      </c>
+      <c r="D67" t="s">
+        <v>18</v>
+      </c>
+      <c r="E67">
+        <v>35</v>
+      </c>
+      <c r="F67" t="s">
+        <v>17</v>
+      </c>
+      <c r="J67" t="s">
+        <v>16</v>
+      </c>
+      <c r="K67" s="3">
+        <v>5000</v>
+      </c>
+      <c r="L67" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="M67" s="2">
+        <v>0.19</v>
+      </c>
+      <c r="N67" s="1">
+        <v>4.9999999999999999E-17</v>
+      </c>
+      <c r="O67" s="1">
         <v>5.0000000000000004E-19</v>
       </c>
     </row>
